--- a/Prefered_PARX_model_forecast/RollingWindow/KLIC_PARX.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/KLIC_PARX.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -40,16 +40,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Prefered_PARX_model_forecast/RollingWindow/KLIC_PARX.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/KLIC_PARX.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +70,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63,10 +95,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A364"/>
+  <dimension ref="A1:A434"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -76,1817 +108,2167 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.85843250569985186</v>
+        <v>28.788653442322151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-1.9062383506317122</v>
+        <v>33.397864112438874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1.5855289152958427</v>
+        <v>-109.73382417261352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-1.4696399338927773</v>
+        <v>-85.131437170994275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-1.5348163072846812</v>
+        <v>-66.270496474023602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-1.6854831316700296</v>
+        <v>-53.093417282451369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-1.6334273118914997</v>
+        <v>-40.446647196660201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-1.5311713519235695</v>
+        <v>-32.948517731561402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-1.461603670701058</v>
+        <v>-27.481262463463302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-1.3390509494946348</v>
+        <v>-28.587939761619893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-1.5955140686359375</v>
+        <v>-25.941945329777251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-1.5675176172953442</v>
+        <v>-22.747322095162165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-1.6534431167460979</v>
+        <v>-20.903922319277481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-1.6964526900449786</v>
+        <v>-18.947169216080642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-1.695540504990783</v>
+        <v>-17.342460913077122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-1.7469448352155503</v>
+        <v>-16.031463667204523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-1.7386025324697927</v>
+        <v>-14.842862282849024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-1.7362525156135493</v>
+        <v>-13.899022246213208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-1.7046005526505372</v>
+        <v>-12.758107766624972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1.6907004842827924</v>
+        <v>-11.836681560596787</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-1.8159850678164389</v>
+        <v>-11.173504709410196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-1.8239386801988444</v>
+        <v>-10.63165902558177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-1.7826934685400786</v>
+        <v>-9.7852211502907718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-1.7533701800002723</v>
+        <v>-9.3198744312064363</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-1.7457207268363191</v>
+        <v>-8.7992829586044135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-1.8079276238680657</v>
+        <v>-8.4102598725667317</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-1.7886715999318936</v>
+        <v>-8.0423603199511753</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-1.7652756561302727</v>
+        <v>-7.7621066464108059</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-1.7586423045083066</v>
+        <v>-7.5305255516798395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-1.8009156399233477</v>
+        <v>-7.2808249551430144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-1.838930923715886</v>
+        <v>-7.2362512918996638</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-1.7139093027382615</v>
+        <v>-7.1583508722613383</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-1.7062935943670157</v>
+        <v>-7.0367930630843736</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-1.677473903725464</v>
+        <v>-6.9828871536669102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-1.6765473946972125</v>
+        <v>-6.9402548027331923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-1.6686056239106846</v>
+        <v>-6.8593634783249353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-1.7008858132595719</v>
+        <v>-6.8424018586953643</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-1.6501442211806021</v>
+        <v>-6.889833511384241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-1.6081543841588222</v>
+        <v>-6.8291637724266776</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-1.5748447324422716</v>
+        <v>-6.812989345747706</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-1.5782682772991372</v>
+        <v>-6.961328424962228</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-1.5749176141273939</v>
+        <v>-6.8715842306655981</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-1.5922156403567091</v>
+        <v>-6.795288820883755</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-1.6560992479582739</v>
+        <v>-6.8108337596067319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-1.6736588200000151</v>
+        <v>-6.7023636203167856</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-1.5378698927531687</v>
+        <v>-6.598766896805456</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-1.4765890682646468</v>
+        <v>-6.5001664542470587</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-1.4415117762480443</v>
+        <v>-6.584095919817222</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-1.4238061101074047</v>
+        <v>-6.6063814987623015</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-1.410297414578364</v>
+        <v>-6.514758571238338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-1.4015155152570289</v>
+        <v>-6.4643310269173444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-1.4286996112217525</v>
+        <v>-6.5716834283067662</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-1.2454406605653812</v>
+        <v>-6.619173223005312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-1.243657005379281</v>
+        <v>-6.5645429655161021</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-1.2180055396867648</v>
+        <v>-6.5633814593788724</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-1.2147134234543009</v>
+        <v>-6.5762309429825274</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-1.2050500722500899</v>
+        <v>-6.5961619872210573</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-1.2327302114080856</v>
+        <v>-6.6558120255870232</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-1.3083050790173101</v>
+        <v>-6.6789045034884147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-1.2424596780648656</v>
+        <v>-6.5100950759260794</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-1.2201663848916793</v>
+        <v>-6.3667556823511822</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-1.1738752774609904</v>
+        <v>-6.2964404775001439</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-1.1048717039083162</v>
+        <v>-6.1745675171563388</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-1.0430805661567746</v>
+        <v>-6.0215156270716417</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.98772496534950571</v>
+        <v>-5.9259062173120425</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.90302409837992337</v>
+        <v>-5.8933128941178161</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.64346087434062516</v>
+        <v>-5.8232920511690471</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.39508894395632416</v>
+        <v>-5.7175261424206196</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.24347032444598246</v>
+        <v>-5.664374105330265</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.064726682593371235</v>
+        <v>-5.6314462792560862</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.0044852092626801081</v>
+        <v>-5.5641415967565813</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.085391668074701679</v>
+        <v>-5.4973561728782219</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.27232876696440977</v>
+        <v>-5.4329665401334557</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.50728502465732395</v>
+        <v>-5.3820156803451988</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.63508012974974226</v>
+        <v>-5.3080632036190556</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.77778547622994698</v>
+        <v>-5.2365166970923864</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.002072851660565</v>
+        <v>-5.1471646653237926</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.1532345283473777</v>
+        <v>-5.1082672047146005</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.4064354308128839</v>
+        <v>-5.0715317716862058</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.5677775078477847</v>
+        <v>-5.0082463659610879</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.8874849313842725</v>
+        <v>-4.9487339093352274</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2.1839303032665249</v>
+        <v>-4.9027068355373791</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2.3963942920502044</v>
+        <v>-4.8470956024302447</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>2.525469799190311</v>
+        <v>-4.7980940050414844</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2.7469133693754753</v>
+        <v>-4.7498777500788387</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2.9392087370544044</v>
+        <v>-4.6982816109275731</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>3.0771786860092134</v>
+        <v>-4.6527215137738844</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>3.2994504119431514</v>
+        <v>-4.5974602962579958</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>3.5294725773546936</v>
+        <v>-4.558866134012618</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>3.7091702680473086</v>
+        <v>-4.515566222002029</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>3.7884624195095249</v>
+        <v>-4.4548173828825943</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>4.0039182925432897</v>
+        <v>-4.4135339299727487</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>4.2602077234017877</v>
+        <v>-4.3640360383139498</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>4.3320089278954592</v>
+        <v>-4.3247848602136356</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>4.5184898654600625</v>
+        <v>-4.2482158007865172</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>4.5608116810247585</v>
+        <v>-4.1802868514619957</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>4.6683025518201333</v>
+        <v>-4.134950621906107</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>4.7351977575363895</v>
+        <v>-4.0777339429803927</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>4.7990607471338702</v>
+        <v>-4.0477534912528847</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>4.9652044489344549</v>
+        <v>-3.9504137308103981</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>5.1743028798668362</v>
+        <v>-3.8833342272557601</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>5.4145483091031492</v>
+        <v>-3.7882193288684136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>5.6240210932341022</v>
+        <v>-3.7519649854406896</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>5.8217923428251011</v>
+        <v>-3.6872430021993678</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>5.9306745605605444</v>
+        <v>-3.6542845873323131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>6.1632218818310553</v>
+        <v>-3.6375520050451673</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>6.418503357102133</v>
+        <v>-3.5907117915400955</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>6.6665130719348813</v>
+        <v>-3.558839321997799</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>6.9824020001656706</v>
+        <v>-3.5288356295222334</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>7.1757017781107848</v>
+        <v>-3.4838071719921606</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>7.5214804806307507</v>
+        <v>-3.412428761494342</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>7.7389259528116563</v>
+        <v>-3.3955770241491874</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>8.0262927221301528</v>
+        <v>-3.3390696062728229</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>8.4484748719183518</v>
+        <v>-3.2449787384457798</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>9.004867984714501</v>
+        <v>-3.2436065267358556</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>9.4503911648511369</v>
+        <v>-3.1758565484616326</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>10.018058500729794</v>
+        <v>-3.0975941058505145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>10.445138392016094</v>
+        <v>-3.045983006800983</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>10.996072597896852</v>
+        <v>-3.0224826572304311</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>11.487629473088978</v>
+        <v>-2.9861447101007168</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>12.04595504752583</v>
+        <v>-2.9625993587384074</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>12.738364778144616</v>
+        <v>-2.9388543269184986</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>13.602101439266027</v>
+        <v>-2.854031661525763</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>14.34484291367734</v>
+        <v>-2.8535591158358558</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>14.775945231658925</v>
+        <v>-2.8190676004901816</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>15.143396940371256</v>
+        <v>-2.817802976384661</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>15.642119523928383</v>
+        <v>-2.7948590133456213</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>16.374471374140999</v>
+        <v>-2.7406231565069872</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>16.945459102958193</v>
+        <v>-2.7372407173259159</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>17.744263842613755</v>
+        <v>-2.6943547299672725</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>18.167363217542537</v>
+        <v>-2.662788751354328</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>18.68603547853456</v>
+        <v>-2.592936271236141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>19.066124616310262</v>
+        <v>-2.4849522690185903</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>19.408243010943657</v>
+        <v>-2.4002697065067267</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>20.040896522490506</v>
+        <v>-2.3353501029106392</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>21.219173101264211</v>
+        <v>-2.2836709179646517</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>21.923091140987005</v>
+        <v>-2.1377623743163765</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>22.530779477574061</v>
+        <v>-1.9808401690746076</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>23.073049305157934</v>
+        <v>-1.8612512713933911</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>23.390882840934356</v>
+        <v>-1.6470866613368791</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>23.836499579618632</v>
+        <v>-1.5438014141189189</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>24.483768998886895</v>
+        <v>-1.3914736357440811</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>25.034958583694163</v>
+        <v>-1.223441170676008</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>25.755471671578778</v>
+        <v>-0.93430960553547082</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>26.407530676856627</v>
+        <v>-0.78875392123750332</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>26.677578234361274</v>
+        <v>-0.62884144413128351</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>26.960573351694698</v>
+        <v>-0.28066155979660962</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>27.246381247173446</v>
+        <v>-0.031144572006593669</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>27.75891792798042</v>
+        <v>0.25527438041076994</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>28.529175783576378</v>
+        <v>0.39427304169641098</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>29.350386080286686</v>
+        <v>0.73553539099883303</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>30.163862745565648</v>
+        <v>1.113497051687786</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>31.00778029519671</v>
+        <v>1.3203047329288231</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>31.99459270681243</v>
+        <v>1.3940173837407719</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>33.011572350035081</v>
+        <v>1.6127257215884963</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>34.702721020649093</v>
+        <v>1.8729794151311081</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>35.621585189654482</v>
+        <v>1.9858433006067717</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>36.986344190863527</v>
+        <v>2.2201025994960473</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>38.80317588577649</v>
+        <v>2.5129331709785196</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>40.353908580193213</v>
+        <v>2.7225315963945405</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>41.713535944381121</v>
+        <v>2.7717225496166877</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>43.449606119530166</v>
+        <v>3.0168953504937814</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>45.699807422710101</v>
+        <v>3.430008347014649</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>48.945127454439351</v>
+        <v>3.462623916782162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>51.984661322019541</v>
+        <v>3.6035371632809747</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>55.147355027045599</v>
+        <v>3.6161857245058564</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>58.268216806801036</v>
+        <v>3.7412150939290623</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>61.295141389322367</v>
+        <v>3.8679387736906681</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>63.657647167705385</v>
+        <v>3.9767561735884844</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>67.686942079313653</v>
+        <v>4.2536802361012098</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>70.132227466847652</v>
+        <v>4.443078391701599</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>73.255033581387735</v>
+        <v>4.6807685709346929</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>75.424057215244929</v>
+        <v>4.898768305213526</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>78.556786681764564</v>
+        <v>5.1145086978750562</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>80.998788912057037</v>
+        <v>5.229665295018525</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>83.446655827921759</v>
+        <v>5.4910626015858339</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>87.908008013645571</v>
+        <v>5.7640561370971009</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>89.904176208160294</v>
+        <v>5.9380942445763303</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>91.897899170443836</v>
+        <v>6.2089135233622645</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>93.664818041140137</v>
+        <v>6.3623554957267663</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>96.350285988290281</v>
+        <v>6.662573706208172</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>98.538090923346161</v>
+        <v>6.8769273723641078</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>99.232289923658158</v>
+        <v>7.172716773341465</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>102.12646655164103</v>
+        <v>7.5505836652647229</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>102.70899980532558</v>
+        <v>7.9776173364641645</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>104.79315801785469</v>
+        <v>8.3173296257238505</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>106.894996387471</v>
+        <v>8.7779003260257351</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>108.46874895614555</v>
+        <v>9.1654955201866048</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>109.97626213419979</v>
+        <v>9.6758787619240803</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>111.31479555328552</v>
+        <v>10.147139670564089</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>112.94781004586433</v>
+        <v>10.652685009337473</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>113.36371294890797</v>
+        <v>11.17294818059311</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>114.77395820194879</v>
+        <v>11.895523618628147</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>115.69008155951296</v>
+        <v>12.538392688160126</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>116.16880055515986</v>
+        <v>12.864232413832973</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>116.92890302834745</v>
+        <v>13.124528132817195</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>117.65326358493967</v>
+        <v>13.578479092645418</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>119.1310763334687</v>
+        <v>14.356372899624411</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>119.77027318746956</v>
+        <v>14.76268063976749</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>119.86636395364769</v>
+        <v>15.39420425615238</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>120.79682679561866</v>
+        <v>15.731327159125501</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>121.4072296421092</v>
+        <v>16.158387803006278</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>121.70093578632419</v>
+        <v>16.486765928598995</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>121.98027636765379</v>
+        <v>16.773920252455511</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>122.41872484352413</v>
+        <v>17.399174292553511</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>120.66079052296195</v>
+        <v>18.259784095467985</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>120.91962104618727</v>
+        <v>18.797424794512033</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>121.02269028564167</v>
+        <v>19.253620210771466</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>120.56529513270549</v>
+        <v>19.705110594624021</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>120.30390742245815</v>
+        <v>19.967334348339687</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>120.23416719361447</v>
+        <v>20.375537197630717</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>120.18451790709143</v>
+        <v>20.926865882855754</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>118.63555277890994</v>
+        <v>21.311691012848392</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>118.41380911868883</v>
+        <v>21.835578588784564</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>118.21878135108918</v>
+        <v>22.372030949611709</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>117.55347746794958</v>
+        <v>22.587659854546132</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>117.189753167324</v>
+        <v>22.817998108669304</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>116.97018613707134</v>
+        <v>23.101223755341913</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>116.75559969088978</v>
+        <v>23.569634193238851</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>115.92766940919579</v>
+        <v>24.116461971268631</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>115.82163231085475</v>
+        <v>24.725479337089375</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>115.4694521031487</v>
+        <v>25.330389500641868</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>114.74321240237586</v>
+        <v>25.948638144467804</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>114.59540227731972</v>
+        <v>26.748605716344713</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>114.26268348731357</v>
+        <v>27.597507862749023</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>113.98268998456112</v>
+        <v>28.809039388179269</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>113.25335047865394</v>
+        <v>29.530198534385349</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>112.95928064917615</v>
+        <v>30.496625735969204</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>112.75976150074546</v>
+        <v>31.884635729577742</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>112.54978751206023</v>
+        <v>33.183395284785007</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>112.28902893447311</v>
+        <v>34.297530810926389</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>111.96172505911444</v>
+        <v>35.744154006120866</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>111.71784583446595</v>
+        <v>37.61734392811772</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>111.26892681306484</v>
+        <v>39.870530569450686</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>111.12206410698313</v>
+        <v>42.028655723456261</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>110.95206761471719</v>
+        <v>44.304758597274237</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>110.68190995728978</v>
+        <v>46.615205211650917</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>110.4735058986162</v>
+        <v>48.997194554690815</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>110.18982208168444</v>
+        <v>50.840284799824481</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>109.9344247617839</v>
+        <v>53.840852470297321</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>109.85026462100416</v>
+        <v>56.037685659626916</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>109.65276579264209</v>
+        <v>58.315338083567696</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>109.46283739070519</v>
+        <v>59.92927276628064</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>109.19616404727702</v>
+        <v>62.506757754979702</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>109.13835690606646</v>
+        <v>64.552590274952976</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>108.86226096938456</v>
+        <v>66.446234399746572</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>108.61996144417472</v>
+        <v>69.857880470059229</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>108.51332864617724</v>
+        <v>71.843478529634396</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>108.32653433013462</v>
+        <v>73.441168435123672</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>108.12805011988657</v>
+        <v>74.905076361627522</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>107.80851792643101</v>
+        <v>76.97325157623051</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>107.63774573188233</v>
+        <v>78.803434636620892</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>107.37234110306733</v>
+        <v>80.148398857815849</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>107.13198188607853</v>
+        <v>82.345402538229266</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>107.04880333021922</v>
+        <v>83.462655093551703</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>106.84596767190475</v>
+        <v>85.033154328280304</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>106.62513505598254</v>
+        <v>86.816786754935308</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>106.34329426426162</v>
+        <v>88.15885624586025</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>106.07881748667533</v>
+        <v>89.418042700212141</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>105.86656865012279</v>
+        <v>90.55989665156423</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>105.75784526754686</v>
+        <v>92.000166500983184</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>105.55430965915242</v>
+        <v>92.949154587768476</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>105.4040389720338</v>
+        <v>94.061242460949842</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>105.30765336144044</v>
+        <v>94.844249043290901</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>105.18716004736453</v>
+        <v>95.821712160676753</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>105.09857528694687</v>
+        <v>96.44290805319811</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>104.95701374957434</v>
+        <v>97.080743213803999</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>104.99500406487945</v>
+        <v>98.487070046652491</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>104.93454443263053</v>
+        <v>99.540966072634504</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>105.00437085999168</v>
+        <v>99.932423334189664</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>104.89111663354531</v>
+        <v>100.70634185431315</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>104.75510948355252</v>
+        <v>101.34352525414039</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>104.59622983287257</v>
+        <v>101.6196158006728</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>104.44682485244445</v>
+        <v>101.91295720220393</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>104.25052928442737</v>
+        <v>102.41381193601298</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>104.28600396840808</v>
+        <v>102.55590836035921</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>104.18203864560169</v>
+        <v>102.82199485592116</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>104.08132071168802</v>
+        <v>102.98420947111616</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>103.95671728652563</v>
+        <v>103.10110124035639</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>103.79576375021919</v>
+        <v>102.94309458718126</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>103.60078708129056</v>
+        <v>102.96481446094066</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>103.44409075991432</v>
+        <v>103.07399562967014</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>103.36858101867904</v>
+        <v>103.0335122485218</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>103.24288915626337</v>
+        <v>102.941662593194</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>103.12524294028869</v>
+        <v>102.85383911483024</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>102.97980452004147</v>
+        <v>102.85741032883426</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>102.87306530296327</v>
+        <v>102.63755370742076</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>102.77428472912965</v>
+        <v>102.53099301687892</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>102.7740510167214</v>
+        <v>102.48496733876512</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>102.75145041974157</v>
+        <v>102.49583034518044</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>102.66045184596409</v>
+        <v>102.45919941567665</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>102.52428692675888</v>
+        <v>102.27627501843219</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>102.37231136285621</v>
+        <v>102.08366206176805</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>102.24801448039869</v>
+        <v>102.01192056768282</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>101.98409613282492</v>
+        <v>101.81214616352459</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>101.83188870847763</v>
+        <v>101.65531539330375</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>101.85080345333877</v>
+        <v>101.43800051325691</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>101.75837643775306</v>
+        <v>101.25188794745681</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>101.72832369422535</v>
+        <v>101.15187471076079</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>101.53505044883835</v>
+        <v>101.05339773300985</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>101.37715622621219</v>
+        <v>100.88973650161377</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>101.20344774132765</v>
+        <v>100.67869185335637</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>101.06957669249771</v>
+        <v>100.55642817846224</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>100.92402092836863</v>
+        <v>100.39616218387729</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>100.74426295489046</v>
+        <v>100.3143215556904</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>100.60127817908702</v>
+        <v>100.25218138791556</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>100.5824162721178</v>
+        <v>100.11535197117466</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>100.51590881776309</v>
+        <v>99.990132311145857</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>100.35682068509992</v>
+        <v>99.815956557047969</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>100.40208015153108</v>
+        <v>99.673165519671571</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>100.22364528165501</v>
+        <v>99.652467332896435</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>100.21400391373396</v>
+        <v>99.540949241168747</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>100.19081393706674</v>
+        <v>99.441315827558995</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>100.22019853467212</v>
+        <v>99.281146009920519</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>100.11388691295591</v>
+        <v>99.297287503014289</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>99.980401719412754</v>
+        <v>99.128286298421443</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>99.836341397847704</v>
+        <v>98.969751468298142</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>99.707406888742995</v>
+        <v>98.916169933119122</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>99.6624046688178</v>
+        <v>98.831451141698679</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>99.481615170296266</v>
+        <v>98.737273553811846</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>99.46295882777747</v>
+        <v>98.509052077613731</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>99.29487486366807</v>
+        <v>98.437525315755337</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>99.15376032324447</v>
+        <v>98.304245192441968</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>98.992147253775727</v>
+        <v>98.171659348235679</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>98.886819042180775</v>
+        <v>98.142473978538945</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>98.767647025419791</v>
+        <v>98.042037804928071</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>98.721444446387352</v>
+        <v>97.921626279234559</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>98.669332574437092</v>
+        <v>97.720111754866394</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>98.543744465648771</v>
+        <v>97.551079278096765</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>98.363044742892441</v>
+        <v>97.483201873713327</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>98.339262012903419</v>
+        <v>97.52319950397721</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>98.234234709073561</v>
+        <v>97.386891033766346</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>98.074915068115232</v>
+        <v>97.300843781990977</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>97.953093561447147</v>
+        <v>97.323817497216609</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>97.788121241913487</v>
+        <v>97.277831709989343</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>97.573969440522291</v>
+        <v>97.272722333722385</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>97.344318288015629</v>
+        <v>97.228182676132761</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>97.221137314981249</v>
+        <v>97.367385247914967</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>96.995002706116338</v>
+        <v>97.343626008834065</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>96.860322646266837</v>
+        <v>97.424649642161455</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>96.645809692828323</v>
+        <v>97.390892202581441</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>96.414247366987851</v>
+        <v>97.325509531542025</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>96.170974857469403</v>
+        <v>97.249406410304942</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>95.957714951886416</v>
+        <v>97.152792656608753</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>95.763513042913857</v>
+        <v>97.015014632591431</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>95.530878058791941</v>
+        <v>97.08634757132819</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>95.284419338668414</v>
+        <v>97.023039390103364</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>95.027955545498514</v>
+        <v>96.99066995119783</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>94.793632232470287</v>
+        <v>96.917453441456345</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>94.562145472106408</v>
+        <v>96.823730696242578</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>94.315112153363557</v>
+        <v>96.699977670942857</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>94.060129518174051</v>
+        <v>96.628439237107941</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>93.822707327479435</v>
+        <v>96.588145891177405</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>93.570579494726232</v>
+        <v>96.518328765113381</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>93.325714744074304</v>
+        <v>96.488483789520956</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>93.082979244022269</v>
+        <v>96.390320845015125</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>92.836081990232046</v>
+        <v>96.351195559366218</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>92.581195109148481</v>
+        <v>96.360673253960655</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>92.324333353628859</v>
+        <v>96.418080756779901</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>92.068607297891091</v>
+        <v>96.417447033966738</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>91.822129230557053</v>
+        <v>96.369064020652928</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>91.583077120464779</v>
+        <v>96.301761095733497</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>91.344185661028291</v>
+        <v>96.196369169263562</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>96.130046662019012</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>95.924275417357876</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>95.821966928530216</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>95.847753953542949</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>95.809877318081192</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>95.836105561193861</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>95.698688939775195</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>95.588776874572119</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>95.498032976305225</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>95.407969126753471</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>95.309483212226709</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>95.175840151806042</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>95.07886588719947</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>95.078221855241864</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>95.060501325764619</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>94.973419675689371</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>95.072087500634467</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>94.941550989518106</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>94.953237380141729</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>94.954954740330209</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>95.027936383504979</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>94.986118294414737</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>94.944538101195164</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>94.84007064419167</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>94.745284760550319</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>94.749057698623304</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>94.620158941670553</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>94.633704238098716</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>94.513798286786638</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>94.429320509333536</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>94.310455919894636</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>94.254045455101675</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>94.180747682300861</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>94.18481659126131</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>94.15462648288819</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>94.06507902678635</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>93.924303321298325</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>93.929745134658788</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>93.858634552010301</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>93.745763614620287</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>93.667121532075072</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>93.539766575819201</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>93.364705545982744</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>93.176456067356682</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>93.091858918240391</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>92.909304423864114</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>92.847678794272625</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>92.697430636492911</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>92.510537326850979</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>92.311753205988524</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>92.171302037756519</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>92.031456710830298</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>91.844642552762977</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>91.645585131242115</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>91.435523812414019</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>91.247270254151033</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>91.072828987282122</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>90.887503744638849</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>90.680692866049242</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>90.491955285814754</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>90.293890383796651</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>90.102160077549499</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>89.911349553090503</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>89.712172910842398</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>89.505293666954415</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>89.295389232624657</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>89.087025363976664</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>88.899165646675257</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>88.721207600388865</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>88.527238085011362</v>
       </c>
     </row>
   </sheetData>
